--- a/Bonds/Bond_сalculator.xlsx
+++ b/Bonds/Bond_сalculator.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
     <workbookView xWindow="240" yWindow="75" windowWidth="27795" windowHeight="12600"/>
@@ -9,12 +9,12 @@
   <sheets>
     <sheet name="Calculator" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="74" uniqueCount="71">
   <si>
     <t>Облигация</t>
   </si>
@@ -221,6 +221,12 @@
   </si>
   <si>
     <t>Description</t>
+  </si>
+  <si>
+    <t>ISIN</t>
+  </si>
+  <si>
+    <t>RU000A102S80</t>
   </si>
 </sst>
 </file>
@@ -384,7 +390,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="46">
+  <cellXfs count="48">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -449,6 +455,10 @@
     <xf numFmtId="2" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="7" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -743,1242 +753,1283 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AB35"/>
+  <dimension ref="A1:AC35"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="1" ySplit="4" topLeftCell="C5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="1" ySplit="4" topLeftCell="B5" activePane="bottomRight" state="frozen"/>
       <selection activeCell="B4" sqref="B4"/>
       <selection pane="topRight" activeCell="B4" sqref="B4"/>
       <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
-      <selection pane="bottomRight" activeCell="D17" sqref="D17"/>
+      <selection pane="bottomRight" activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="12.5703125" customWidth="1"/>
     <col min="2" max="2" width="11.140625" style="20" customWidth="1"/>
-    <col min="3" max="3" width="12.7109375" customWidth="1"/>
-    <col min="4" max="4" width="11.42578125" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" customWidth="1"/>
-    <col min="6" max="6" width="11.42578125" style="5" customWidth="1"/>
-    <col min="7" max="7" width="13.140625" customWidth="1"/>
-    <col min="8" max="8" width="12.28515625" customWidth="1"/>
-    <col min="9" max="9" width="11.140625" customWidth="1"/>
-    <col min="10" max="10" width="9.85546875" customWidth="1"/>
-    <col min="11" max="11" width="11.42578125" customWidth="1"/>
-    <col min="12" max="12" width="9.5703125" customWidth="1"/>
-    <col min="13" max="13" width="7.7109375" customWidth="1"/>
-    <col min="14" max="14" width="12.28515625" customWidth="1"/>
-    <col min="15" max="15" width="10.85546875" customWidth="1"/>
-    <col min="16" max="16" width="11" customWidth="1"/>
-    <col min="17" max="17" width="10.85546875" customWidth="1"/>
-    <col min="18" max="18" width="9.85546875" customWidth="1"/>
-    <col min="19" max="19" width="8.85546875" customWidth="1"/>
-    <col min="20" max="20" width="9.140625" customWidth="1"/>
-    <col min="21" max="21" width="8.7109375" customWidth="1"/>
-    <col min="22" max="22" width="9.28515625" customWidth="1"/>
-    <col min="23" max="23" width="7.5703125" customWidth="1"/>
-    <col min="24" max="25" width="9.85546875" customWidth="1"/>
-    <col min="26" max="26" width="9.28515625" style="5" customWidth="1"/>
-    <col min="27" max="28" width="8.140625" style="5" customWidth="1"/>
+    <col min="3" max="3" width="15.28515625" style="20" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" customWidth="1"/>
+    <col min="6" max="6" width="9.85546875" customWidth="1"/>
+    <col min="7" max="7" width="11.42578125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="13.140625" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" customWidth="1"/>
+    <col min="11" max="11" width="9.85546875" customWidth="1"/>
+    <col min="12" max="12" width="11.42578125" customWidth="1"/>
+    <col min="13" max="13" width="9.5703125" customWidth="1"/>
+    <col min="14" max="14" width="7.7109375" customWidth="1"/>
+    <col min="15" max="15" width="12.28515625" customWidth="1"/>
+    <col min="16" max="16" width="10.85546875" customWidth="1"/>
+    <col min="17" max="17" width="11" customWidth="1"/>
+    <col min="18" max="18" width="10.85546875" customWidth="1"/>
+    <col min="19" max="19" width="9.85546875" customWidth="1"/>
+    <col min="20" max="20" width="8.85546875" customWidth="1"/>
+    <col min="21" max="21" width="9.140625" customWidth="1"/>
+    <col min="22" max="22" width="8.7109375" customWidth="1"/>
+    <col min="23" max="23" width="9.28515625" customWidth="1"/>
+    <col min="24" max="24" width="7.5703125" customWidth="1"/>
+    <col min="25" max="26" width="9.85546875" customWidth="1"/>
+    <col min="27" max="27" width="9.28515625" style="5" customWidth="1"/>
+    <col min="28" max="29" width="8.140625" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" ht="30.75" thickBot="1">
-      <c r="E1" s="38" t="s">
+    <row r="1" spans="1:29" ht="30.75" thickBot="1">
+      <c r="F1" s="38" t="s">
         <v>53</v>
       </c>
-      <c r="F1" s="39" t="s">
+      <c r="G1" s="39" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="40" t="s">
+      <c r="H1" s="40" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="2" spans="1:28" ht="16.5" thickBot="1">
+    <row r="2" spans="1:29" ht="16.5" thickBot="1">
       <c r="A2" s="2"/>
       <c r="B2" s="1"/>
-      <c r="C2" s="35" t="s">
-        <v>0</v>
-      </c>
-      <c r="D2" s="36">
+      <c r="C2" s="1"/>
+      <c r="D2" s="35" t="s">
+        <v>0</v>
+      </c>
+      <c r="E2" s="36">
         <v>45265</v>
       </c>
-      <c r="E2" s="25"/>
-      <c r="F2" s="41"/>
-      <c r="G2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="41"/>
       <c r="H2" s="25"/>
       <c r="I2" s="25"/>
       <c r="J2" s="25"/>
       <c r="K2" s="25"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="26" t="s">
+      <c r="L2" s="25"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="N2" s="27"/>
-      <c r="O2" s="28" t="s">
+      <c r="O2" s="27"/>
+      <c r="P2" s="28" t="s">
         <v>45</v>
       </c>
-      <c r="P2" s="27"/>
       <c r="Q2" s="27"/>
       <c r="R2" s="27"/>
       <c r="S2" s="27"/>
       <c r="T2" s="27"/>
       <c r="U2" s="27"/>
-      <c r="V2" s="27">
+      <c r="V2" s="27"/>
+      <c r="W2" s="27">
         <v>13</v>
       </c>
-      <c r="W2" s="29">
+      <c r="X2" s="29">
         <v>13</v>
       </c>
-      <c r="X2" s="30" t="s">
+      <c r="Y2" s="30" t="s">
         <v>3</v>
       </c>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="32"/>
-      <c r="AA2" s="33" t="s">
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="32"/>
+      <c r="AB2" s="33" t="s">
         <v>46</v>
       </c>
-      <c r="AB2" s="34"/>
-    </row>
-    <row r="3" spans="1:28" ht="75">
+      <c r="AC2" s="34"/>
+    </row>
+    <row r="3" spans="1:29" ht="75">
       <c r="A3" t="s">
         <v>68</v>
       </c>
       <c r="B3" s="21" t="s">
         <v>39</v>
       </c>
-      <c r="C3" s="11" t="s">
+      <c r="C3" s="46" t="s">
+        <v>69</v>
+      </c>
+      <c r="D3" s="11" t="s">
         <v>38</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="E3" s="22" t="s">
         <v>40</v>
       </c>
-      <c r="E3" s="11" t="s">
+      <c r="F3" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="F3" s="23" t="s">
+      <c r="G3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="G3" s="11" t="s">
+      <c r="H3" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="H3" s="11" t="s">
+      <c r="I3" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="I3" s="11" t="s">
+      <c r="J3" s="11" t="s">
         <v>49</v>
       </c>
-      <c r="J3" s="11" t="s">
+      <c r="K3" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="K3" s="11" t="s">
+      <c r="L3" s="11" t="s">
         <v>50</v>
       </c>
-      <c r="L3" s="11" t="s">
+      <c r="M3" s="11" t="s">
         <v>51</v>
       </c>
-      <c r="M3" s="11" t="s">
+      <c r="N3" s="11" t="s">
         <v>52</v>
       </c>
-      <c r="N3" s="11" t="s">
+      <c r="O3" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="O3" s="11" t="s">
+      <c r="P3" s="11" t="s">
         <v>55</v>
       </c>
-      <c r="P3" s="11" t="s">
+      <c r="Q3" s="11" t="s">
         <v>56</v>
       </c>
-      <c r="Q3" s="11" t="s">
+      <c r="R3" s="11" t="s">
         <v>57</v>
       </c>
-      <c r="R3" s="11" t="s">
+      <c r="S3" s="11" t="s">
         <v>58</v>
       </c>
-      <c r="S3" s="11" t="s">
+      <c r="T3" s="11" t="s">
         <v>59</v>
       </c>
-      <c r="T3" s="11" t="s">
+      <c r="U3" s="11" t="s">
         <v>60</v>
       </c>
-      <c r="U3" s="11" t="s">
+      <c r="V3" s="11" t="s">
         <v>61</v>
       </c>
-      <c r="V3" s="11" t="s">
+      <c r="W3" s="11" t="s">
         <v>62</v>
       </c>
-      <c r="W3" s="11" t="s">
+      <c r="X3" s="11" t="s">
         <v>63</v>
       </c>
-      <c r="X3" s="11" t="s">
+      <c r="Y3" s="11" t="s">
         <v>64</v>
       </c>
-      <c r="Y3" s="11" t="s">
+      <c r="Z3" s="11" t="s">
         <v>67</v>
       </c>
-      <c r="Z3" s="24" t="s">
+      <c r="AA3" s="24" t="s">
         <v>66</v>
       </c>
-      <c r="AA3" s="24" t="s">
+      <c r="AB3" s="24" t="s">
         <v>65</v>
       </c>
-      <c r="AB3" s="21" t="s">
+      <c r="AC3" s="21" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="4" spans="1:28" ht="74.25" customHeight="1">
+    <row r="4" spans="1:29" ht="74.25" customHeight="1">
       <c r="A4" s="42" t="s">
         <v>4</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>30</v>
       </c>
-      <c r="C4" s="42" t="s">
+      <c r="C4" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D4" s="42" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="43" t="s">
+      <c r="E4" s="43" t="s">
         <v>6</v>
       </c>
-      <c r="E4" s="43" t="s">
+      <c r="F4" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="F4" s="44" t="s">
+      <c r="G4" s="44" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="43" t="s">
+      <c r="H4" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="H4" s="43" t="s">
+      <c r="I4" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="43" t="s">
+      <c r="J4" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="J4" s="43" t="s">
+      <c r="K4" s="43" t="s">
         <v>12</v>
       </c>
-      <c r="K4" s="43" t="s">
+      <c r="L4" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="L4" s="43" t="s">
+      <c r="M4" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="M4" s="43" t="s">
+      <c r="N4" s="43" t="s">
         <v>15</v>
       </c>
-      <c r="N4" s="43" t="s">
+      <c r="O4" s="43" t="s">
         <v>16</v>
       </c>
-      <c r="O4" s="43" t="s">
+      <c r="P4" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="P4" s="43" t="s">
+      <c r="Q4" s="43" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="43" t="s">
+      <c r="R4" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="43" t="s">
+      <c r="S4" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="S4" s="43" t="s">
+      <c r="T4" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="T4" s="43" t="s">
+      <c r="U4" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="U4" s="43" t="s">
+      <c r="V4" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="43" t="s">
+      <c r="W4" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="W4" s="43" t="s">
+      <c r="X4" s="43" t="s">
         <v>25</v>
       </c>
-      <c r="X4" s="43" t="s">
+      <c r="Y4" s="43" t="s">
         <v>26</v>
       </c>
-      <c r="Y4" s="43" t="s">
+      <c r="Z4" s="43" t="s">
         <v>27</v>
       </c>
-      <c r="Z4" s="45" t="s">
+      <c r="AA4" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="AA4" s="45" t="s">
+      <c r="AB4" s="45" t="s">
         <v>29</v>
       </c>
-      <c r="AB4" s="45" t="s">
+      <c r="AC4" s="45" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="15.75" customHeight="1">
+    <row r="5" spans="1:29" ht="15.75" customHeight="1">
       <c r="A5" s="7">
         <v>0.13569999999999999</v>
       </c>
       <c r="B5" s="8">
-        <f t="shared" ref="B5:B11" si="0">AB5</f>
-        <v>4.3155595963045572</v>
-      </c>
-      <c r="C5" s="4" t="s">
+        <f t="shared" ref="B5:B11" si="0">AC5</f>
+        <v>-1.423295277886945</v>
+      </c>
+      <c r="C5" s="8"/>
+      <c r="D5" s="4" t="s">
         <v>31</v>
       </c>
-      <c r="D5" s="9">
-        <f t="shared" ref="D5:D11" si="1">$D$2</f>
+      <c r="E5" s="9">
+        <f t="shared" ref="E5:E11" si="1">$E$2</f>
         <v>45265</v>
       </c>
-      <c r="E5" s="4">
+      <c r="F5" s="4">
         <v>1000</v>
       </c>
-      <c r="F5" s="10">
-        <v>99.63</v>
-      </c>
-      <c r="G5" s="11">
-        <v>26.73</v>
-      </c>
-      <c r="H5">
-        <f t="shared" ref="H5:H11" si="2">E5*F5/100+G5</f>
-        <v>1023.03</v>
-      </c>
-      <c r="I5" s="12">
+      <c r="G5" s="10">
+        <v>99.92</v>
+      </c>
+      <c r="H5" s="11">
+        <v>26.9</v>
+      </c>
+      <c r="I5">
+        <f t="shared" ref="I5:I11" si="2">F5*G5/100+H5</f>
+        <v>1026.1000000000001</v>
+      </c>
+      <c r="J5" s="12">
         <v>45284</v>
       </c>
-      <c r="J5">
+      <c r="K5">
         <v>29.83</v>
       </c>
-      <c r="K5">
-        <f t="shared" ref="K5:K11" si="3">IF(E5&gt;H5,E5-H5,0)</f>
-        <v>0</v>
-      </c>
       <c r="L5">
-        <f t="shared" ref="L5:L11" si="4">I5-D5</f>
+        <f t="shared" ref="L5:L11" si="3">IF(F5&gt;I5,F5-I5,0)</f>
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <f t="shared" ref="M5:M11" si="4">J5-E5</f>
         <v>19</v>
       </c>
-      <c r="M5">
+      <c r="N5">
         <v>10</v>
       </c>
-      <c r="N5">
-        <f t="shared" ref="N5:N11" si="5">M5*H5</f>
-        <v>10230.299999999999</v>
-      </c>
       <c r="O5">
-        <f t="shared" ref="O5:O11" si="6">M5*E5</f>
+        <f t="shared" ref="O5:O11" si="5">N5*I5</f>
+        <v>10261.000000000002</v>
+      </c>
+      <c r="P5">
+        <f t="shared" ref="P5:P11" si="6">N5*F5</f>
         <v>10000</v>
       </c>
-      <c r="P5">
-        <f t="shared" ref="P5:P11" si="7">M5*J5</f>
+      <c r="Q5">
+        <f t="shared" ref="Q5:Q11" si="7">N5*K5</f>
         <v>298.29999999999995</v>
       </c>
-      <c r="Q5">
-        <f t="shared" ref="Q5:Q11" si="8">K5*M5</f>
-        <v>0</v>
-      </c>
       <c r="R5">
+        <f t="shared" ref="R5:R11" si="8">L5*N5</f>
+        <v>0</v>
+      </c>
+      <c r="S5">
         <v>0.01</v>
       </c>
-      <c r="S5">
+      <c r="T5">
         <v>0.05</v>
       </c>
-      <c r="T5">
-        <f t="shared" ref="T5:T11" si="9">N5*R5/100</f>
-        <v>1.0230299999999999</v>
-      </c>
       <c r="U5">
-        <f t="shared" ref="U5:U11" si="10">N5*S5/100</f>
-        <v>5.1151499999999999</v>
+        <f t="shared" ref="U5:U11" si="9">O5*S5/100</f>
+        <v>1.0261000000000002</v>
       </c>
       <c r="V5">
-        <f t="shared" ref="V5:V11" si="11">P5*$V$2/100</f>
+        <f t="shared" ref="V5:V11" si="10">O5*T5/100</f>
+        <v>5.1305000000000005</v>
+      </c>
+      <c r="W5">
+        <f t="shared" ref="W5:W11" si="11">Q5*$W$2/100</f>
         <v>38.778999999999996</v>
       </c>
-      <c r="W5">
-        <f t="shared" ref="W5:W11" si="12">Q5*$W$2/100</f>
-        <v>0</v>
-      </c>
       <c r="X5">
-        <f t="shared" ref="X5:X11" si="13">O5+P5</f>
+        <f t="shared" ref="X5:X11" si="12">R5*$X$2/100</f>
+        <v>0</v>
+      </c>
+      <c r="Y5">
+        <f t="shared" ref="Y5:Y11" si="13">P5+Q5</f>
         <v>10298.299999999999</v>
       </c>
-      <c r="Y5">
-        <f t="shared" ref="Y5:Y11" si="14">N5+T5+U5+V5+W5</f>
-        <v>10275.21718</v>
-      </c>
-      <c r="Z5" s="5">
-        <f t="shared" ref="Z5:Z11" si="15">X5-Y5</f>
-        <v>23.082819999999629</v>
+      <c r="Z5">
+        <f t="shared" ref="Z5:Z11" si="14">O5+U5+V5+W5+X5</f>
+        <v>10305.935600000001</v>
       </c>
       <c r="AA5" s="5">
-        <f t="shared" ref="AA5:AA11" si="16">Z5/Y5*100</f>
-        <v>0.22464556802681254</v>
-      </c>
-      <c r="AB5" s="13">
-        <f t="shared" ref="AB5:AB11" si="17">AA5/L5*365</f>
-        <v>4.3155595963045572</v>
-      </c>
-    </row>
-    <row r="6" spans="1:28">
+        <f t="shared" ref="AA5:AA11" si="15">Y5-Z5</f>
+        <v>-7.6356000000014319</v>
+      </c>
+      <c r="AB5" s="5">
+        <f t="shared" ref="AB5:AB11" si="16">AA5/Z5*100</f>
+        <v>-7.4089343232471114E-2</v>
+      </c>
+      <c r="AC5" s="13">
+        <f t="shared" ref="AC5:AC11" si="17">AB5/M5*365</f>
+        <v>-1.423295277886945</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29">
       <c r="A6" s="14">
         <v>14.22</v>
       </c>
       <c r="B6" s="8">
         <f t="shared" si="0"/>
-        <v>9.84934846705411</v>
-      </c>
-      <c r="C6" s="4" t="s">
+        <v>9.9477626846985405</v>
+      </c>
+      <c r="C6" s="8"/>
+      <c r="D6" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D6" s="9">
+      <c r="E6" s="9">
         <f t="shared" si="1"/>
         <v>45265</v>
       </c>
-      <c r="E6" s="4">
+      <c r="F6" s="4">
         <v>1000</v>
       </c>
-      <c r="F6" s="10">
-        <v>99.04</v>
-      </c>
-      <c r="G6" s="11">
-        <v>23.13</v>
-      </c>
-      <c r="H6">
+      <c r="G6" s="10">
+        <v>99.01</v>
+      </c>
+      <c r="H6" s="11">
+        <v>23.3</v>
+      </c>
+      <c r="I6">
         <f t="shared" si="2"/>
-        <v>1013.53</v>
-      </c>
-      <c r="I6" s="12">
+        <v>1013.4</v>
+      </c>
+      <c r="J6" s="12">
         <v>45313</v>
       </c>
-      <c r="J6">
+      <c r="K6">
         <v>31.41</v>
       </c>
-      <c r="K6">
+      <c r="L6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L6">
+      <c r="M6">
         <f t="shared" si="4"/>
         <v>48</v>
       </c>
-      <c r="M6">
+      <c r="N6">
         <v>10</v>
       </c>
-      <c r="N6">
+      <c r="O6">
         <f t="shared" si="5"/>
-        <v>10135.299999999999</v>
-      </c>
-      <c r="O6">
+        <v>10134</v>
+      </c>
+      <c r="P6">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="P6">
+      <c r="Q6">
         <f t="shared" si="7"/>
         <v>314.10000000000002</v>
       </c>
-      <c r="Q6">
+      <c r="R6">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R6">
+      <c r="S6">
         <v>0.01</v>
       </c>
-      <c r="S6">
+      <c r="T6">
         <v>0.05</v>
       </c>
-      <c r="T6">
+      <c r="U6">
         <f t="shared" si="9"/>
-        <v>1.01353</v>
-      </c>
-      <c r="U6">
+        <v>1.0134000000000001</v>
+      </c>
+      <c r="V6">
         <f t="shared" si="10"/>
-        <v>5.0676499999999995</v>
-      </c>
-      <c r="V6">
+        <v>5.0670000000000002</v>
+      </c>
+      <c r="W6">
         <f t="shared" si="11"/>
         <v>40.832999999999998</v>
       </c>
-      <c r="W6">
+      <c r="X6">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X6">
+      <c r="Y6">
         <f t="shared" si="13"/>
         <v>10314.1</v>
       </c>
-      <c r="Y6">
+      <c r="Z6">
         <f t="shared" si="14"/>
-        <v>10182.214180000001</v>
-      </c>
-      <c r="Z6" s="5">
+        <v>10180.913399999999</v>
+      </c>
+      <c r="AA6" s="5">
         <f t="shared" si="15"/>
-        <v>131.88581999999951</v>
-      </c>
-      <c r="AA6" s="5">
+        <v>133.18660000000091</v>
+      </c>
+      <c r="AB6" s="5">
         <f t="shared" si="16"/>
-        <v>1.2952567847084857</v>
-      </c>
-      <c r="AB6" s="13">
+        <v>1.3081989283987123</v>
+      </c>
+      <c r="AC6" s="13">
         <f t="shared" si="17"/>
-        <v>9.84934846705411</v>
-      </c>
-    </row>
-    <row r="7" spans="1:28">
+        <v>9.9477626846985405</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29">
       <c r="A7" s="7">
         <v>0.13039999999999999</v>
       </c>
       <c r="B7" s="8">
         <f t="shared" si="0"/>
-        <v>9.7927518476357527</v>
-      </c>
-      <c r="C7" s="4" t="s">
+        <v>9.6130757057530065</v>
+      </c>
+      <c r="C7" s="8"/>
+      <c r="D7" s="4" t="s">
         <v>33</v>
       </c>
-      <c r="D7" s="9">
+      <c r="E7" s="9">
         <f t="shared" si="1"/>
         <v>45265</v>
       </c>
-      <c r="E7" s="4">
+      <c r="F7" s="4">
         <v>1000</v>
       </c>
-      <c r="F7" s="10">
+      <c r="G7" s="10">
         <v>99.5</v>
       </c>
-      <c r="G7" s="11">
-        <v>10.01</v>
-      </c>
-      <c r="H7">
+      <c r="H7" s="11">
+        <v>10.25</v>
+      </c>
+      <c r="I7">
         <f t="shared" si="2"/>
-        <v>1005.01</v>
-      </c>
-      <c r="I7" s="12">
+        <v>1005.25</v>
+      </c>
+      <c r="J7" s="12">
         <v>45314</v>
       </c>
-      <c r="J7">
+      <c r="K7">
         <v>21.69</v>
       </c>
-      <c r="K7">
+      <c r="L7">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L7">
+      <c r="M7">
         <f t="shared" si="4"/>
         <v>49</v>
       </c>
-      <c r="M7">
+      <c r="N7">
         <v>10</v>
       </c>
-      <c r="N7">
+      <c r="O7">
         <f t="shared" si="5"/>
-        <v>10050.1</v>
-      </c>
-      <c r="O7">
+        <v>10052.5</v>
+      </c>
+      <c r="P7">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="P7">
+      <c r="Q7">
         <f t="shared" si="7"/>
         <v>216.9</v>
       </c>
-      <c r="Q7">
+      <c r="R7">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R7">
+      <c r="S7">
         <v>0.01</v>
       </c>
-      <c r="S7">
+      <c r="T7">
         <v>0.05</v>
       </c>
-      <c r="T7">
+      <c r="U7">
         <f t="shared" si="9"/>
-        <v>1.00501</v>
-      </c>
-      <c r="U7">
+        <v>1.00525</v>
+      </c>
+      <c r="V7">
         <f t="shared" si="10"/>
-        <v>5.0250500000000002</v>
-      </c>
-      <c r="V7">
+        <v>5.0262500000000001</v>
+      </c>
+      <c r="W7">
         <f t="shared" si="11"/>
         <v>28.197000000000003</v>
       </c>
-      <c r="W7">
+      <c r="X7">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X7">
+      <c r="Y7">
         <f t="shared" si="13"/>
         <v>10216.9</v>
       </c>
-      <c r="Y7">
+      <c r="Z7">
         <f t="shared" si="14"/>
-        <v>10084.327060000001</v>
-      </c>
-      <c r="Z7" s="5">
+        <v>10086.728500000001</v>
+      </c>
+      <c r="AA7" s="5">
         <f t="shared" si="15"/>
-        <v>132.5729399999982</v>
-      </c>
-      <c r="AA7" s="5">
+        <v>130.17149999999856</v>
+      </c>
+      <c r="AB7" s="5">
         <f t="shared" si="16"/>
-        <v>1.3146433987237038</v>
-      </c>
-      <c r="AB7" s="13">
+        <v>1.2905224920051983</v>
+      </c>
+      <c r="AC7" s="13">
         <f t="shared" si="17"/>
-        <v>9.7927518476357527</v>
-      </c>
-    </row>
-    <row r="8" spans="1:28">
+        <v>9.6130757057530065</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29">
       <c r="A8" s="7">
         <v>0.126</v>
       </c>
       <c r="B8" s="8">
         <f t="shared" si="0"/>
-        <v>7.640547210353164</v>
-      </c>
-      <c r="C8" s="4" t="s">
+        <v>6.5896532359709079</v>
+      </c>
+      <c r="C8" s="8"/>
+      <c r="D8" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D8" s="9">
+      <c r="E8" s="9">
         <f t="shared" si="1"/>
         <v>45265</v>
       </c>
-      <c r="E8" s="4">
+      <c r="F8" s="4">
         <v>1000</v>
       </c>
-      <c r="F8" s="10">
-        <v>99.49</v>
-      </c>
-      <c r="G8" s="11">
-        <v>30.99</v>
-      </c>
-      <c r="H8">
+      <c r="G8" s="10">
+        <v>99.62</v>
+      </c>
+      <c r="H8" s="11">
+        <v>31.22</v>
+      </c>
+      <c r="I8">
         <f t="shared" si="2"/>
-        <v>1025.8899999999999</v>
-      </c>
-      <c r="I8" s="12">
+        <v>1027.42</v>
+      </c>
+      <c r="J8" s="12">
         <v>45317</v>
       </c>
-      <c r="J8">
+      <c r="K8">
         <v>43.38</v>
       </c>
-      <c r="K8">
+      <c r="L8">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L8">
+      <c r="M8">
         <f t="shared" si="4"/>
         <v>52</v>
       </c>
-      <c r="M8">
+      <c r="N8">
         <v>10</v>
       </c>
-      <c r="N8">
+      <c r="O8">
         <f t="shared" si="5"/>
-        <v>10258.899999999998</v>
-      </c>
-      <c r="O8">
+        <v>10274.200000000001</v>
+      </c>
+      <c r="P8">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="P8">
+      <c r="Q8">
         <f t="shared" si="7"/>
         <v>433.8</v>
       </c>
-      <c r="Q8">
+      <c r="R8">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R8">
+      <c r="S8">
         <v>0.01</v>
       </c>
-      <c r="S8">
+      <c r="T8">
         <v>0.05</v>
       </c>
-      <c r="T8">
+      <c r="U8">
         <f t="shared" si="9"/>
-        <v>1.0258899999999997</v>
-      </c>
-      <c r="U8">
+        <v>1.02742</v>
+      </c>
+      <c r="V8">
         <f t="shared" si="10"/>
-        <v>5.1294499999999994</v>
-      </c>
-      <c r="V8">
+        <v>5.1371000000000002</v>
+      </c>
+      <c r="W8">
         <f t="shared" si="11"/>
         <v>56.394000000000005</v>
       </c>
-      <c r="W8">
+      <c r="X8">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X8">
+      <c r="Y8">
         <f t="shared" si="13"/>
         <v>10433.799999999999</v>
       </c>
-      <c r="Y8">
+      <c r="Z8">
         <f t="shared" si="14"/>
-        <v>10321.449339999999</v>
-      </c>
-      <c r="Z8" s="5">
+        <v>10336.758520000001</v>
+      </c>
+      <c r="AA8" s="5">
         <f t="shared" si="15"/>
-        <v>112.35066000000006</v>
-      </c>
-      <c r="AA8" s="5">
+        <v>97.041479999998046</v>
+      </c>
+      <c r="AB8" s="5">
         <f t="shared" si="16"/>
-        <v>1.0885163148996289</v>
-      </c>
-      <c r="AB8" s="13">
+        <v>0.93879991306982791</v>
+      </c>
+      <c r="AC8" s="13">
         <f t="shared" si="17"/>
-        <v>7.640547210353164</v>
-      </c>
-    </row>
-    <row r="9" spans="1:28">
+        <v>6.5896532359709079</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29">
       <c r="A9" s="7">
         <v>0.1182</v>
       </c>
       <c r="B9" s="8">
         <f t="shared" si="0"/>
-        <v>7.4093900302178231</v>
-      </c>
-      <c r="C9" s="4" t="s">
+        <v>7.2674890348893673</v>
+      </c>
+      <c r="C9" s="8"/>
+      <c r="D9" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="D9" s="9">
+      <c r="E9" s="9">
         <f t="shared" si="1"/>
         <v>45265</v>
       </c>
-      <c r="E9" s="4">
+      <c r="F9" s="4">
         <v>1000</v>
       </c>
-      <c r="F9" s="10">
+      <c r="G9" s="10">
         <v>99.64</v>
       </c>
-      <c r="G9" s="11">
-        <v>30.97</v>
-      </c>
-      <c r="H9">
+      <c r="H9" s="11">
+        <v>31.22</v>
+      </c>
+      <c r="I9">
         <f t="shared" si="2"/>
-        <v>1027.3699999999999</v>
-      </c>
-      <c r="I9" s="12">
+        <v>1027.6199999999999</v>
+      </c>
+      <c r="J9" s="12">
         <v>45328</v>
       </c>
-      <c r="J9">
+      <c r="K9">
         <v>47.37</v>
       </c>
-      <c r="K9">
+      <c r="L9">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L9">
+      <c r="M9">
         <f t="shared" si="4"/>
         <v>63</v>
       </c>
-      <c r="M9">
+      <c r="N9">
         <v>10</v>
       </c>
-      <c r="N9">
+      <c r="O9">
         <f t="shared" si="5"/>
-        <v>10273.699999999999</v>
-      </c>
-      <c r="O9">
+        <v>10276.199999999999</v>
+      </c>
+      <c r="P9">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="P9">
+      <c r="Q9">
         <f t="shared" si="7"/>
         <v>473.7</v>
       </c>
-      <c r="Q9">
+      <c r="R9">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R9">
+      <c r="S9">
         <v>0.01</v>
       </c>
-      <c r="S9">
+      <c r="T9">
         <v>0.05</v>
       </c>
-      <c r="T9">
+      <c r="U9">
         <f t="shared" si="9"/>
-        <v>1.0273699999999999</v>
-      </c>
-      <c r="U9">
+        <v>1.0276199999999998</v>
+      </c>
+      <c r="V9">
         <f t="shared" si="10"/>
-        <v>5.136849999999999</v>
-      </c>
-      <c r="V9">
+        <v>5.1380999999999997</v>
+      </c>
+      <c r="W9">
         <f t="shared" si="11"/>
         <v>61.580999999999996</v>
       </c>
-      <c r="W9">
+      <c r="X9">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X9">
+      <c r="Y9">
         <f t="shared" si="13"/>
         <v>10473.700000000001</v>
       </c>
-      <c r="Y9">
+      <c r="Z9">
         <f t="shared" si="14"/>
-        <v>10341.44522</v>
-      </c>
-      <c r="Z9" s="5">
+        <v>10343.94672</v>
+      </c>
+      <c r="AA9" s="5">
         <f t="shared" si="15"/>
-        <v>132.25478000000112</v>
-      </c>
-      <c r="AA9" s="5">
+        <v>129.75328000000081</v>
+      </c>
+      <c r="AB9" s="5">
         <f t="shared" si="16"/>
-        <v>1.2788810189143092</v>
-      </c>
-      <c r="AB9" s="13">
+        <v>1.2543885183507675</v>
+      </c>
+      <c r="AC9" s="13">
         <f t="shared" si="17"/>
-        <v>7.4093900302178231</v>
-      </c>
-    </row>
-    <row r="10" spans="1:28">
+        <v>7.2674890348893673</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29">
       <c r="A10" s="7">
         <v>0.1452</v>
       </c>
       <c r="B10" s="8">
         <f t="shared" si="0"/>
-        <v>11.560305503173298</v>
-      </c>
-      <c r="C10" s="4" t="s">
+        <v>11.668679873640098</v>
+      </c>
+      <c r="C10" s="47" t="s">
+        <v>70</v>
+      </c>
+      <c r="D10" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="D10" s="9">
+      <c r="E10" s="9">
         <f t="shared" si="1"/>
         <v>45265</v>
       </c>
-      <c r="E10" s="4">
+      <c r="F10" s="4">
         <v>1000</v>
       </c>
-      <c r="F10" s="10">
-        <v>98.36</v>
-      </c>
-      <c r="G10" s="11">
-        <v>17.670000000000002</v>
-      </c>
-      <c r="H10">
+      <c r="G10" s="10">
+        <v>98.32</v>
+      </c>
+      <c r="H10" s="11">
+        <v>17.84</v>
+      </c>
+      <c r="I10">
         <f t="shared" si="2"/>
-        <v>1001.27</v>
-      </c>
-      <c r="I10" s="12">
+        <v>1001.0400000000001</v>
+      </c>
+      <c r="J10" s="12">
         <v>45344</v>
       </c>
-      <c r="J10">
+      <c r="K10">
         <v>31.08</v>
       </c>
-      <c r="K10">
+      <c r="L10">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L10">
+      <c r="M10">
         <f t="shared" si="4"/>
         <v>79</v>
       </c>
-      <c r="M10">
+      <c r="N10">
         <v>10</v>
       </c>
-      <c r="N10">
+      <c r="O10">
         <f t="shared" si="5"/>
-        <v>10012.700000000001</v>
-      </c>
-      <c r="O10">
+        <v>10010.400000000001</v>
+      </c>
+      <c r="P10">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="P10">
+      <c r="Q10">
         <f t="shared" si="7"/>
         <v>310.79999999999995</v>
       </c>
-      <c r="Q10">
+      <c r="R10">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R10">
+      <c r="S10">
         <v>0.01</v>
       </c>
-      <c r="S10">
+      <c r="T10">
         <v>0.05</v>
       </c>
-      <c r="T10">
+      <c r="U10">
         <f t="shared" si="9"/>
-        <v>1.0012700000000001</v>
-      </c>
-      <c r="U10">
+        <v>1.0010400000000002</v>
+      </c>
+      <c r="V10">
         <f t="shared" si="10"/>
-        <v>5.0063500000000003</v>
-      </c>
-      <c r="V10">
+        <v>5.0052000000000012</v>
+      </c>
+      <c r="W10">
         <f t="shared" si="11"/>
         <v>40.403999999999996</v>
       </c>
-      <c r="W10">
+      <c r="X10">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X10">
+      <c r="Y10">
         <f t="shared" si="13"/>
         <v>10310.799999999999</v>
       </c>
-      <c r="Y10">
+      <c r="Z10">
         <f t="shared" si="14"/>
-        <v>10059.111620000001</v>
-      </c>
-      <c r="Z10" s="5">
+        <v>10056.810240000001</v>
+      </c>
+      <c r="AA10" s="5">
         <f t="shared" si="15"/>
-        <v>251.68837999999778</v>
-      </c>
-      <c r="AA10" s="5">
+        <v>253.98975999999857</v>
+      </c>
+      <c r="AB10" s="5">
         <f t="shared" si="16"/>
-        <v>2.5020935198649057</v>
-      </c>
-      <c r="AB10" s="13">
+        <v>2.5255498904590898</v>
+      </c>
+      <c r="AC10" s="13">
         <f t="shared" si="17"/>
-        <v>11.560305503173298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:28">
+        <v>11.668679873640098</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29">
       <c r="A11" s="7">
         <v>0.14549999999999999</v>
       </c>
       <c r="B11" s="8">
         <f t="shared" si="0"/>
-        <v>11.894583990864405</v>
-      </c>
-      <c r="C11" s="4" t="s">
+        <v>11.639915663473726</v>
+      </c>
+      <c r="C11" s="8"/>
+      <c r="D11" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="9">
+      <c r="E11" s="9">
         <f t="shared" si="1"/>
         <v>45265</v>
       </c>
-      <c r="E11" s="4">
+      <c r="F11" s="4">
         <v>1000</v>
       </c>
-      <c r="F11" s="10">
-        <v>98.3</v>
-      </c>
-      <c r="G11" s="11">
-        <v>17.27</v>
-      </c>
-      <c r="H11" s="4">
+      <c r="G11" s="10">
+        <v>98.34</v>
+      </c>
+      <c r="H11" s="11">
+        <v>17.45</v>
+      </c>
+      <c r="I11" s="4">
         <f t="shared" si="2"/>
-        <v>1000.27</v>
-      </c>
-      <c r="I11" s="12">
+        <v>1000.85</v>
+      </c>
+      <c r="J11" s="12">
         <v>45350</v>
       </c>
-      <c r="J11" s="4">
+      <c r="K11" s="4">
         <v>32.409999999999997</v>
       </c>
-      <c r="K11" s="4">
+      <c r="L11" s="4">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="L11" s="4">
+      <c r="M11" s="4">
         <f t="shared" si="4"/>
         <v>85</v>
       </c>
-      <c r="M11" s="4">
+      <c r="N11" s="4">
         <v>10</v>
       </c>
-      <c r="N11" s="4">
+      <c r="O11" s="4">
         <f t="shared" si="5"/>
-        <v>10002.700000000001</v>
-      </c>
-      <c r="O11" s="4">
+        <v>10008.5</v>
+      </c>
+      <c r="P11" s="4">
         <f t="shared" si="6"/>
         <v>10000</v>
       </c>
-      <c r="P11" s="4">
+      <c r="Q11" s="4">
         <f t="shared" si="7"/>
         <v>324.09999999999997</v>
       </c>
-      <c r="Q11" s="4">
+      <c r="R11" s="4">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="R11" s="4">
+      <c r="S11" s="4">
         <v>0.01</v>
       </c>
-      <c r="S11" s="4">
-        <v>0</v>
-      </c>
       <c r="T11" s="4">
+        <v>0</v>
+      </c>
+      <c r="U11" s="4">
         <f t="shared" si="9"/>
-        <v>1.0002700000000002</v>
-      </c>
-      <c r="U11" s="4">
+        <v>1.00085</v>
+      </c>
+      <c r="V11" s="4">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="V11" s="4">
+      <c r="W11" s="4">
         <f t="shared" si="11"/>
         <v>42.132999999999996</v>
       </c>
-      <c r="W11" s="4">
+      <c r="X11" s="4">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="X11" s="4">
+      <c r="Y11" s="4">
         <f t="shared" si="13"/>
         <v>10324.1</v>
       </c>
-      <c r="Y11" s="4">
+      <c r="Z11" s="4">
         <f t="shared" si="14"/>
-        <v>10045.833270000001</v>
-      </c>
-      <c r="Z11" s="10">
+        <v>10051.63385</v>
+      </c>
+      <c r="AA11" s="10">
         <f t="shared" si="15"/>
-        <v>278.26672999999937</v>
-      </c>
-      <c r="AA11" s="10">
+        <v>272.4661500000002</v>
+      </c>
+      <c r="AB11" s="10">
         <f t="shared" si="16"/>
-        <v>2.7699716143108888</v>
-      </c>
-      <c r="AB11" s="15">
+        <v>2.7106652914938816</v>
+      </c>
+      <c r="AC11" s="15">
         <f t="shared" si="17"/>
-        <v>11.894583990864405</v>
-      </c>
-    </row>
-    <row r="12" spans="1:28">
+        <v>11.639915663473726</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29">
       <c r="A12" s="4"/>
       <c r="B12" s="8"/>
-      <c r="C12" s="4"/>
-      <c r="D12" s="9"/>
-      <c r="E12" s="4"/>
-      <c r="F12" s="10"/>
-      <c r="G12" s="11"/>
-      <c r="I12" s="12"/>
-      <c r="AB12" s="13"/>
-    </row>
-    <row r="13" spans="1:28">
+      <c r="C12" s="8"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="9"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="10"/>
+      <c r="H12" s="11"/>
+      <c r="J12" s="12"/>
+      <c r="AC12" s="13"/>
+    </row>
+    <row r="13" spans="1:29">
       <c r="A13" s="6"/>
       <c r="B13" s="8"/>
-      <c r="C13" s="4"/>
-      <c r="D13" s="9"/>
-      <c r="E13" s="4"/>
-      <c r="F13" s="10"/>
-      <c r="G13" s="11"/>
-      <c r="I13" s="12"/>
-      <c r="AB13" s="13"/>
-    </row>
-    <row r="14" spans="1:28">
+      <c r="C13" s="8"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="9"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="10"/>
+      <c r="H13" s="11"/>
+      <c r="J13" s="12"/>
+      <c r="AC13" s="13"/>
+    </row>
+    <row r="14" spans="1:29">
       <c r="A14" s="4"/>
       <c r="B14" s="16"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="9"/>
-      <c r="E14" s="4"/>
-      <c r="F14" s="10"/>
-      <c r="G14" s="11"/>
-      <c r="I14" s="12"/>
-      <c r="AB14" s="13"/>
-    </row>
-    <row r="15" spans="1:28">
+      <c r="C14" s="16"/>
+      <c r="D14" s="6"/>
+      <c r="E14" s="9"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="10"/>
+      <c r="H14" s="11"/>
+      <c r="J14" s="12"/>
+      <c r="AC14" s="13"/>
+    </row>
+    <row r="15" spans="1:29">
       <c r="A15" s="6"/>
       <c r="B15" s="17"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="17"/>
       <c r="D15" s="4"/>
       <c r="E15" s="4"/>
-      <c r="F15" s="10"/>
-      <c r="G15" s="4"/>
-    </row>
-    <row r="16" spans="1:28">
+      <c r="F15" s="4"/>
+      <c r="G15" s="10"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:29">
       <c r="A16" s="4"/>
       <c r="B16" s="16"/>
-      <c r="C16" s="4"/>
-      <c r="D16" s="9"/>
-      <c r="E16" s="4"/>
-      <c r="F16" s="10"/>
-      <c r="G16" s="11"/>
-      <c r="I16" s="12"/>
-      <c r="AB16" s="13"/>
-    </row>
-    <row r="17" spans="1:28">
+      <c r="C16" s="16"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="9"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="10"/>
+      <c r="H16" s="11"/>
+      <c r="J16" s="12"/>
+      <c r="AC16" s="13"/>
+    </row>
+    <row r="17" spans="1:29">
       <c r="A17" s="6"/>
       <c r="B17" s="17"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="17"/>
       <c r="D17" s="4"/>
       <c r="E17" s="4"/>
-      <c r="F17" s="10"/>
-      <c r="G17" s="4"/>
-    </row>
-    <row r="18" spans="1:28">
+      <c r="F17" s="4"/>
+      <c r="G17" s="10"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:29">
       <c r="A18" s="6"/>
       <c r="B18" s="17"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="17"/>
       <c r="D18" s="4"/>
       <c r="E18" s="4"/>
-      <c r="F18" s="10"/>
-      <c r="G18" s="4"/>
-    </row>
-    <row r="19" spans="1:28">
+      <c r="F18" s="4"/>
+      <c r="G18" s="10"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:29">
       <c r="A19" s="4"/>
       <c r="B19" s="16"/>
-      <c r="C19" s="6"/>
-      <c r="D19" s="9"/>
-      <c r="E19" s="4"/>
-      <c r="F19" s="10"/>
-      <c r="G19" s="4"/>
-      <c r="I19" s="18"/>
-      <c r="AB19" s="13"/>
-    </row>
-    <row r="20" spans="1:28">
+      <c r="C19" s="16"/>
+      <c r="D19" s="6"/>
+      <c r="E19" s="9"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="10"/>
+      <c r="H19" s="4"/>
+      <c r="J19" s="18"/>
+      <c r="AC19" s="13"/>
+    </row>
+    <row r="20" spans="1:29">
       <c r="A20" s="4"/>
       <c r="B20" s="16"/>
-      <c r="C20" s="6"/>
-      <c r="D20" s="9"/>
-      <c r="E20" s="4"/>
-      <c r="F20" s="10"/>
-      <c r="G20" s="4"/>
-      <c r="I20" s="18"/>
-      <c r="AB20" s="13"/>
-    </row>
-    <row r="21" spans="1:28">
+      <c r="C20" s="16"/>
+      <c r="D20" s="6"/>
+      <c r="E20" s="9"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="10"/>
+      <c r="H20" s="4"/>
+      <c r="J20" s="18"/>
+      <c r="AC20" s="13"/>
+    </row>
+    <row r="21" spans="1:29">
       <c r="A21" s="6"/>
       <c r="B21" s="17"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="17"/>
       <c r="D21" s="4"/>
       <c r="E21" s="4"/>
-      <c r="F21" s="10"/>
-      <c r="G21" s="4"/>
-    </row>
-    <row r="22" spans="1:28">
+      <c r="F21" s="4"/>
+      <c r="G21" s="10"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:29">
       <c r="A22" s="4"/>
       <c r="B22" s="8"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="8"/>
       <c r="D22" s="4"/>
       <c r="E22" s="4"/>
-      <c r="F22" s="10"/>
-      <c r="G22" s="4"/>
-    </row>
-    <row r="23" spans="1:28">
+      <c r="F22" s="4"/>
+      <c r="G22" s="10"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:29">
       <c r="A23" s="4"/>
       <c r="B23" s="19"/>
-      <c r="C23" s="6"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="4"/>
-      <c r="F23" s="10"/>
-      <c r="G23" s="4"/>
-      <c r="I23" s="18"/>
-      <c r="AB23" s="13"/>
-    </row>
-    <row r="24" spans="1:28">
+      <c r="C23" s="19"/>
+      <c r="D23" s="6"/>
+      <c r="E23" s="9"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="10"/>
+      <c r="H23" s="4"/>
+      <c r="J23" s="18"/>
+      <c r="AC23" s="13"/>
+    </row>
+    <row r="24" spans="1:29">
       <c r="A24" s="4"/>
       <c r="B24" s="8"/>
-      <c r="C24" s="4"/>
-      <c r="D24" s="9"/>
-      <c r="E24" s="4"/>
-      <c r="F24" s="10"/>
-      <c r="G24" s="4"/>
-      <c r="I24" s="12"/>
-      <c r="AB24" s="13"/>
-    </row>
-    <row r="25" spans="1:28">
+      <c r="C24" s="8"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="9"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="10"/>
+      <c r="H24" s="4"/>
+      <c r="J24" s="12"/>
+      <c r="AC24" s="13"/>
+    </row>
+    <row r="25" spans="1:29">
       <c r="A25" s="6"/>
       <c r="B25" s="17"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="17"/>
       <c r="D25" s="4"/>
       <c r="E25" s="4"/>
-      <c r="F25" s="10"/>
-      <c r="G25" s="4"/>
-    </row>
-    <row r="26" spans="1:28">
+      <c r="F25" s="4"/>
+      <c r="G25" s="10"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:29">
       <c r="A26" s="4"/>
       <c r="B26" s="17"/>
-      <c r="C26" s="4"/>
+      <c r="C26" s="17"/>
       <c r="D26" s="4"/>
       <c r="E26" s="4"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="4"/>
-    </row>
-    <row r="27" spans="1:28">
+      <c r="F26" s="4"/>
+      <c r="G26" s="10"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:29">
       <c r="A27" s="4"/>
       <c r="B27" s="16"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="9"/>
-      <c r="E27" s="4"/>
-      <c r="F27" s="10"/>
-      <c r="G27" s="4"/>
-      <c r="I27" s="12"/>
-      <c r="AB27" s="13"/>
-    </row>
-    <row r="28" spans="1:28">
+      <c r="C27" s="16"/>
+      <c r="D27" s="6"/>
+      <c r="E27" s="9"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="10"/>
+      <c r="H27" s="4"/>
+      <c r="J27" s="12"/>
+      <c r="AC27" s="13"/>
+    </row>
+    <row r="28" spans="1:29">
       <c r="A28" s="4"/>
       <c r="B28" s="16"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="9"/>
-      <c r="E28" s="4"/>
-      <c r="F28" s="10"/>
-      <c r="G28" s="4"/>
-      <c r="I28" s="12"/>
-      <c r="AB28" s="13"/>
-    </row>
-    <row r="29" spans="1:28">
+      <c r="C28" s="16"/>
+      <c r="D28" s="6"/>
+      <c r="E28" s="9"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="10"/>
+      <c r="H28" s="4"/>
+      <c r="J28" s="12"/>
+      <c r="AC28" s="13"/>
+    </row>
+    <row r="29" spans="1:29">
       <c r="A29" s="4"/>
       <c r="B29" s="16"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="9"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="10"/>
-      <c r="G29" s="4"/>
-      <c r="I29" s="12"/>
-      <c r="AB29" s="13"/>
-    </row>
-    <row r="30" spans="1:28">
+      <c r="C29" s="16"/>
+      <c r="D29" s="6"/>
+      <c r="E29" s="9"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="10"/>
+      <c r="H29" s="4"/>
+      <c r="J29" s="12"/>
+      <c r="AC29" s="13"/>
+    </row>
+    <row r="30" spans="1:29">
       <c r="A30" s="4"/>
       <c r="B30" s="8"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="9"/>
-      <c r="E30" s="4"/>
-      <c r="F30" s="10"/>
-      <c r="G30" s="4"/>
-      <c r="I30" s="12"/>
-      <c r="AB30" s="13"/>
-    </row>
-    <row r="31" spans="1:28">
+      <c r="C30" s="8"/>
+      <c r="D30" s="6"/>
+      <c r="E30" s="9"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="10"/>
+      <c r="H30" s="4"/>
+      <c r="J30" s="12"/>
+      <c r="AC30" s="13"/>
+    </row>
+    <row r="31" spans="1:29">
       <c r="A31" s="4"/>
       <c r="B31" s="17"/>
-      <c r="C31" s="4"/>
+      <c r="C31" s="17"/>
       <c r="D31" s="4"/>
       <c r="E31" s="4"/>
-      <c r="F31" s="10"/>
-      <c r="G31" s="4"/>
-    </row>
-    <row r="32" spans="1:28">
+      <c r="F31" s="4"/>
+      <c r="G31" s="10"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:29">
       <c r="A32" s="4"/>
       <c r="B32" s="17"/>
-      <c r="C32" s="4"/>
+      <c r="C32" s="17"/>
       <c r="D32" s="4"/>
       <c r="E32" s="4"/>
-      <c r="F32" s="10"/>
-      <c r="G32" s="4"/>
-    </row>
-    <row r="33" spans="1:7">
+      <c r="F32" s="4"/>
+      <c r="G32" s="10"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8">
       <c r="A33" s="4"/>
       <c r="B33" s="17"/>
-      <c r="C33" s="4"/>
+      <c r="C33" s="17"/>
       <c r="D33" s="4"/>
       <c r="E33" s="4"/>
-      <c r="F33" s="10"/>
-      <c r="G33" s="4"/>
-    </row>
-    <row r="34" spans="1:7">
+      <c r="F33" s="4"/>
+      <c r="G33" s="10"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8">
       <c r="A34" s="4"/>
       <c r="B34" s="17"/>
-      <c r="C34" s="4"/>
+      <c r="C34" s="17"/>
       <c r="D34" s="4"/>
       <c r="E34" s="4"/>
-      <c r="F34" s="10"/>
-      <c r="G34" s="4"/>
-    </row>
-    <row r="35" spans="1:7">
+      <c r="F34" s="4"/>
+      <c r="G34" s="10"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8">
       <c r="A35" s="4"/>
       <c r="B35" s="17"/>
-      <c r="C35" s="4"/>
+      <c r="C35" s="17"/>
       <c r="D35" s="4"/>
       <c r="E35" s="4"/>
-      <c r="F35" s="10"/>
-      <c r="G35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="10"/>
+      <c r="H35" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
